--- a/Disciplines.xlsx
+++ b/Disciplines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InternetTechnology\web-app-asp-net-mvc-import-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BB2C32-1248-40D5-A6CF-3DC4C5751262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E5B35D-DD1C-4608-A03C-EE212E5F22EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Дисциплина</t>
   </si>
@@ -420,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,72 +428,60 @@
     <col min="4" max="4" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="360" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
